--- a/HW3_Excel1/HW3_114306034.xlsx
+++ b/HW3_Excel1/HW3_114306034.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29404"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\計概TA\1011\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8D7AE99-5500-4085-BD74-02703A3BC334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6870"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,14 +35,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -249,7 +248,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -415,6 +414,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -440,7 +440,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-TW"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -628,7 +628,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1841262599"/>
@@ -687,7 +687,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1170727944"/>
@@ -704,6 +704,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -729,7 +730,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-TW"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -759,7 +760,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-TW"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -810,6 +811,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -835,7 +837,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-TW"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -893,6 +895,102 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-BC69-4959-956D-2E33D222F10A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-BC69-4959-956D-2E33D222F10A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -922,7 +1020,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -948,7 +1046,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1008,6 +1108,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1035,7 +1136,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-TW"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1065,7 +1166,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-TW"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2540,19 +2641,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9961FA0D-67BD-4FEB-B956-7740A55D5973}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.25" customWidth="1"/>
+    <col min="8" max="8" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.26953125" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
